--- a/biology/Zoologie/Boloria_des_prés/Boloria_des_prés.xlsx
+++ b/biology/Zoologie/Boloria_des_prés/Boloria_des_prés.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Boloria_des_pr%C3%A9s</t>
+          <t>Boloria_des_prés</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Boloria bellona
 Le Boloria des prés (Boloria bellona) est une espèce de lépidoptères (papillons) de la famille des Nymphalidae et de la sous-famille des Heliconiinae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Boloria_des_pr%C3%A9s</t>
+          <t>Boloria_des_prés</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,18 +524,14 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>L'espèce Boloria bellona a été décrite par Fabricius en 1775.
 Synonymes :
 Papilio bellona Fabricius, 1775 — protonyme
-Clossiana bellona (Fabricius, 1775)[1]
-Noms vernaculaires
-Le Boloria des prés se nomme Meadow Fritillary en anglais[1].
-Sous-espèces
-Boloria (Clossiana) bellona bellona
-Boloria (Clossiana) bellona jenistae (D. Stallings &amp; Turner, 1947)
-Boloria (Clossiana) bellona toddi (Holland, 1928)[1].</t>
+Clossiana bellona (Fabricius, 1775)</t>
         </is>
       </c>
     </row>
@@ -533,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Boloria_des_pr%C3%A9s</t>
+          <t>Boloria_des_prés</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,86 +556,310 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Boloria des prés se nomme Meadow Fritillary en anglais.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Boloria_des_prés</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Boloria_des_pr%C3%A9s</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Boloria (Clossiana) bellona bellona
+Boloria (Clossiana) bellona jenistae (D. Stallings &amp; Turner, 1947)
+Boloria (Clossiana) bellona toddi (Holland, 1928).</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Boloria_des_prés</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Boloria_des_pr%C3%A9s</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un papillon à l'apex de l'aile antérieure sub-tronqué au dessus de couleur orange orné de discrets dessins de couleur marron, avec une suffusion basale marron.
 Le revers des postérieures est d'une couleur brun violacé.
 			Avers
 			Revers
-Chenille
-Elle est de couleur verte avec des épines marron jaune[2].
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Boloria_des_pr%C3%A9s</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Boloria_des_pr%C3%A9s</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Boloria_des_prés</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Boloria_des_pr%C3%A9s</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Chenille</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est de couleur verte avec des épines marron jaune.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Boloria_des_prés</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Boloria_des_pr%C3%A9s</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Période de vol et hivernation
-Il vole en deux génération en mai et en août, mais en une seule dans le nord de son aire de répartition et trois dans les régions les plus chaudes.
-Plantes hôtes
-Ses plantes hôtes sont des Viola : Viola pallens et Viola sororia[1].
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il vole en deux génération en mai et en août, mais en une seule dans le nord de son aire de répartition et trois dans les régions les plus chaudes.
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Boloria_des_pr%C3%A9s</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Boloria_des_pr%C3%A9s</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Boloria_des_prés</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Boloria_des_pr%C3%A9s</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses plantes hôtes sont des Viola : Viola pallens et Viola sororia.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Boloria_des_prés</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Boloria_des_pr%C3%A9s</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Boloria des prés réside dans tout le nord de l'Amérique du Nord[1]. Il est présent dans presque tout le Canada et aux États-Unis jusqu'au sud de la Caroline du Nord[3],[2].
-Biotope
-Il réside dans des habitats très divers : prés, bords de routes, clairières, tourbières.
-Protection
-Pas de statut de protection particulier.
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Boloria des prés réside dans tout le nord de l'Amérique du Nord. Il est présent dans presque tout le Canada et aux États-Unis jusqu'au sud de la Caroline du Nord,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Boloria_des_prés</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Boloria_des_pr%C3%A9s</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans des habitats très divers : prés, bords de routes, clairières, tourbières.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Boloria_des_prés</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Boloria_des_pr%C3%A9s</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
